--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,46 @@
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
@@ -91,18 +97,18 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -112,25 +118,34 @@
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -494,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -613,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,37 +678,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.6896551724137931</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,16 +849,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6533333333333333</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +878,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +928,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
         <v>0.4814814814814815</v>
@@ -963,13 +978,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -984,16 +999,16 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.3958333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1028,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5957446808510638</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1031,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,13 +1078,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1081,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.2542372881355932</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1113,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5579710144927537</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1131,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2276867030965392</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L14">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>848</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1178,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1181,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.03463855421686747</v>
+        <v>0.2258652094717669</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1205,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>641</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1213,37 +1228,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4102564102564102</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>23</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.02777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1255,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>525</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1263,31 +1278,31 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.04026845637583892</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>13</v>
       </c>
-      <c r="E17">
-        <v>0.08</v>
-      </c>
-      <c r="F17">
-        <v>0.92</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>286</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.0211038961038961</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1305,21 +1320,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>603</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>25</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.01152073732718894</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1331,7 +1370,109 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1716</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.04697986577181208</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>284</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.02259036144578313</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.02176696542893726</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>0.01555299539170507</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
